--- a/Result/ARIMA/Service/BRA.xlsx
+++ b/Result/ARIMA/Service/BRA.xlsx
@@ -463,7 +463,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>40.39216130279042</v>
+        <v>0.6336537368188535</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>41.75996842349758</v>
+        <v>41.02581503960927</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>42.4190255795566</v>
+        <v>42.39362216031643</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>43.44155036882159</v>
+        <v>43.05267931637545</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>43.32850625327787</v>
+        <v>44.07520410564044</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>41.51539060257752</v>
+        <v>43.96215999009672</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>40.64470131460936</v>
+        <v>42.14904433939637</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>41.24641256639161</v>
+        <v>41.27835505142821</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>44.78031830526385</v>
+        <v>41.88006630321046</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>48.36730926609516</v>
+        <v>45.4139720420827</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>60.49660594273774</v>
+        <v>49.00096300291401</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>60.54971376498944</v>
+        <v>61.13025967955659</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>68.35745481971038</v>
+        <v>61.18336750180829</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>73.33788012680031</v>
+        <v>68.99110855652924</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>56.89434247242718</v>
+        <v>73.97153386361917</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>58.12141637349539</v>
+        <v>57.52799620924602</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>60.31887979344722</v>
+        <v>58.75507011031424</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>60.6057128176905</v>
+        <v>60.95253353026607</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>61.11859304813537</v>
+        <v>61.23936655450935</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>60.20365663472661</v>
+        <v>61.75224678495422</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>58.25186124746511</v>
+        <v>60.83731037154546</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>57.71369224739362</v>
+        <v>58.88551498428396</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>57.3481454732844</v>
+        <v>58.34734598421247</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>56.35782813582522</v>
+        <v>57.98179921010325</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>54.92047110790613</v>
+        <v>56.99148187264407</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>56.07589161025081</v>
+        <v>55.55412484472498</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>57.13812720270957</v>
+        <v>56.70954534706966</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -733,7 +733,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>57.72623620312919</v>
+        <v>57.77178093952842</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -743,7 +743,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>56.80486176779907</v>
+        <v>58.35988993994804</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -753,7 +753,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>59.14505921092611</v>
+        <v>57.43851550461792</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -763,7 +763,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>57.61292197538091</v>
+        <v>59.77871294774496</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -773,7 +773,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>57.56816931633505</v>
+        <v>58.24657571219976</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -783,7 +783,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>58.73360250964264</v>
+        <v>58.2018230531539</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -793,7 +793,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>59.67875798588496</v>
+        <v>59.36725624646149</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -803,7 +803,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>61.25097401370299</v>
+        <v>60.31241172270381</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -813,7 +813,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>62.30786717674127</v>
+        <v>61.88462775052184</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -823,7 +823,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>63.20369582826915</v>
+        <v>62.94152091356012</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -874,13 +874,13 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>63.20369582826915</v>
+        <v>63.837349565088</v>
       </c>
       <c r="C2" t="n">
-        <v>55.40939056649598</v>
+        <v>56.14261451516851</v>
       </c>
       <c r="D2" t="n">
-        <v>70.99800109004232</v>
+        <v>71.53208461500748</v>
       </c>
     </row>
     <row r="3">
@@ -888,13 +888,13 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>63.20369582826915</v>
+        <v>64.47100330190685</v>
       </c>
       <c r="C3" t="n">
-        <v>52.18088361780273</v>
+        <v>53.5890046354431</v>
       </c>
       <c r="D3" t="n">
-        <v>74.22650803873556</v>
+        <v>75.35300196837059</v>
       </c>
     </row>
     <row r="4">
@@ -902,13 +902,13 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>63.20369582826915</v>
+        <v>65.1046570387257</v>
       </c>
       <c r="C4" t="n">
-        <v>49.70356310519158</v>
+        <v>51.77698498148412</v>
       </c>
       <c r="D4" t="n">
-        <v>76.70382855134672</v>
+        <v>78.43232909596729</v>
       </c>
     </row>
     <row r="5">
@@ -916,13 +916,13 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>63.20369582826915</v>
+        <v>65.73831077554456</v>
       </c>
       <c r="C5" t="n">
-        <v>47.61508530474229</v>
+        <v>50.34884067570559</v>
       </c>
       <c r="D5" t="n">
-        <v>78.792306351796</v>
+        <v>81.12778087538354</v>
       </c>
     </row>
     <row r="6">
@@ -930,13 +930,13 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>63.20369582826915</v>
+        <v>66.37196451236342</v>
       </c>
       <c r="C6" t="n">
-        <v>45.77509942558328</v>
+        <v>49.16601387189321</v>
       </c>
       <c r="D6" t="n">
-        <v>80.63229223095502</v>
+        <v>83.57791515283363</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>40.39216130279042</v>
+        <v>0.4631494590506633</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>41.75996842349758</v>
+        <v>40.85531076184108</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>42.4190255795566</v>
+        <v>42.22311788254824</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>43.44155036882159</v>
+        <v>42.88217503860727</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>43.32850625327787</v>
+        <v>43.90469982787225</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>41.51539060257752</v>
+        <v>43.79165571232853</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>40.64470131460936</v>
+        <v>41.97854006162818</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>41.24641256639161</v>
+        <v>41.10785077366002</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>44.78031830526385</v>
+        <v>41.70956202544227</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1075,7 +1075,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>48.36730926609516</v>
+        <v>45.24346776431451</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>60.49660594273774</v>
+        <v>48.83045872514582</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>60.54971376498944</v>
+        <v>60.95975540178841</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1105,7 +1105,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>68.35745481971038</v>
+        <v>61.0128632240401</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>73.33788012680031</v>
+        <v>68.82060427876105</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1125,7 +1125,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>56.89434247242718</v>
+        <v>73.80102958585098</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1135,7 +1135,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>58.12141637349539</v>
+        <v>57.35749193147783</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1145,7 +1145,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>60.31887979344722</v>
+        <v>58.58456583254605</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1155,7 +1155,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>60.6057128176905</v>
+        <v>60.78202925249789</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1165,7 +1165,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>61.11859304813537</v>
+        <v>61.06886227674116</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1175,7 +1175,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>60.20365663472661</v>
+        <v>61.58174250718603</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1185,7 +1185,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>58.25186124746511</v>
+        <v>60.66680609377728</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1195,7 +1195,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>57.71369224739362</v>
+        <v>58.71501070651577</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1205,7 +1205,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>57.3481454732844</v>
+        <v>58.17684170644428</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1215,7 +1215,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>56.35782813582522</v>
+        <v>57.81129493233506</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1225,7 +1225,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>54.92047110790613</v>
+        <v>56.82097759487588</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1235,7 +1235,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>56.07589161025081</v>
+        <v>55.38362056695679</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1245,7 +1245,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>57.13812720270957</v>
+        <v>56.53904106930147</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1255,7 +1255,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>57.72623620312919</v>
+        <v>57.60127666176023</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1265,7 +1265,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>56.80486176779907</v>
+        <v>58.18938566217985</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>59.14505921092611</v>
+        <v>57.26801122684973</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>57.61292197538091</v>
+        <v>59.60820866997677</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1295,7 +1295,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>57.56816931633505</v>
+        <v>58.07607143443157</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1305,7 +1305,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>58.73360250964264</v>
+        <v>58.03131877538571</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -1315,7 +1315,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>59.67875798588496</v>
+        <v>59.1967519686933</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -1325,7 +1325,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>61.25097401370299</v>
+        <v>60.14190744493562</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1335,7 +1335,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>62.30786717674127</v>
+        <v>61.71412347275365</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1345,7 +1345,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>63.20369582826915</v>
+        <v>62.77101663579193</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1355,7 +1355,7 @@
         <v>2017</v>
       </c>
       <c r="B39" t="n">
-        <v>63.33867286074985</v>
+        <v>63.66684528731981</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -1365,7 +1365,7 @@
         <v>2018</v>
       </c>
       <c r="B40" t="n">
-        <v>62.65335034702257</v>
+        <v>63.80182231980051</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2019</v>
       </c>
       <c r="B41" t="n">
-        <v>63.06784925390022</v>
+        <v>63.11649980607323</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -1385,7 +1385,7 @@
         <v>2020</v>
       </c>
       <c r="B42" t="n">
-        <v>62.79521127395249</v>
+        <v>63.53099871295088</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
@@ -1395,7 +1395,7 @@
         <v>2021</v>
       </c>
       <c r="B43" t="n">
-        <v>59.38128912386762</v>
+        <v>63.25836073300315</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
@@ -1446,13 +1446,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>59.38128912386762</v>
+        <v>59.84443858291828</v>
       </c>
       <c r="C2" t="n">
-        <v>51.99865617985693</v>
+        <v>52.517815811601</v>
       </c>
       <c r="D2" t="n">
-        <v>66.76392206787831</v>
+        <v>67.17106135423555</v>
       </c>
     </row>
     <row r="3">
@@ -1460,13 +1460,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>59.38128912386762</v>
+        <v>60.30758804196894</v>
       </c>
       <c r="C3" t="n">
-        <v>48.94066948842539</v>
+        <v>49.9461787523805</v>
       </c>
       <c r="D3" t="n">
-        <v>69.82190875930985</v>
+        <v>70.66899733155738</v>
       </c>
     </row>
     <row r="4">
@@ -1474,13 +1474,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>59.38128912386762</v>
+        <v>60.7707375010196</v>
       </c>
       <c r="C4" t="n">
-        <v>46.59419377120947</v>
+        <v>48.080654613207</v>
       </c>
       <c r="D4" t="n">
-        <v>72.16838447652576</v>
+        <v>73.46082038883222</v>
       </c>
     </row>
     <row r="5">
@@ -1488,13 +1488,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>59.38128912386762</v>
+        <v>61.23388696007027</v>
       </c>
       <c r="C5" t="n">
-        <v>44.61602323584646</v>
+        <v>46.58064141743571</v>
       </c>
       <c r="D5" t="n">
-        <v>74.14655501188878</v>
+        <v>75.88713250270482</v>
       </c>
     </row>
     <row r="6">
@@ -1502,13 +1502,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>59.38128912386762</v>
+        <v>61.69703641912093</v>
       </c>
       <c r="C6" t="n">
-        <v>42.87322000813057</v>
+        <v>45.3142098569576</v>
       </c>
       <c r="D6" t="n">
-        <v>75.88935823960466</v>
+        <v>78.07986298128425</v>
       </c>
     </row>
   </sheetData>
